--- a/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,24 +52,30 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>low</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -91,169 +97,166 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>better</t>
+    <t>dear</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>health</t>
+    <t>new</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -614,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +625,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
         <v>37</v>
@@ -683,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="L3">
         <v>25</v>
       </c>
-      <c r="K3">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="L3">
-        <v>32</v>
-      </c>
       <c r="M3">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -754,16 +757,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,16 +807,16 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -854,16 +857,16 @@
         <v>82</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -883,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5263157894736842</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -901,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5128205128205128</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K8">
         <v>0.8571428571428571</v>
@@ -983,7 +986,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4871794871794872</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -1001,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8414634146341463</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.392156862745098</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>20</v>
       </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>31</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3892617449664429</v>
+        <v>0.3825503355704698</v>
       </c>
       <c r="C11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.8169014084507042</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L11">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="M11">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.374031007751938</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C12">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>323</v>
+        <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3466666666666667</v>
+        <v>0.3624031007751938</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>49</v>
+        <v>329</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.328042328042328</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C14">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.8046875</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L14">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2727272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.7931034482758621</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1336,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2111111111111111</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.7833333333333333</v>
+        <v>0.8046875</v>
       </c>
       <c r="L16">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="M16">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1944444444444444</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C17">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1425,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,37 +1436,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1209677419354839</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C18">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>327</v>
+        <v>70</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.7446808510638298</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,21 +1478,45 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.2023809523809524</v>
+      </c>
+      <c r="C19">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>201</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>0.73125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1501,21 +1528,45 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.09115281501340483</v>
+      </c>
+      <c r="C20">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>339</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K20">
-        <v>0.7264150943396226</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L20">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="M20">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1527,21 +1578,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>0.7142857142857143</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1553,21 +1604,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>0.7058823529411765</v>
+        <v>0.73125</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1579,21 +1630,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.6984126984126984</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1605,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.6944444444444444</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1631,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.6702127659574468</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1657,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>0.6470588235294118</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1683,21 +1734,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K27">
-        <v>0.6292428198433421</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L27">
-        <v>241</v>
+        <v>62</v>
       </c>
       <c r="M27">
-        <v>241</v>
+        <v>62</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1709,21 +1760,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K28">
-        <v>0.6046511627906976</v>
+        <v>0.6370757180156658</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1735,21 +1786,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K29">
-        <v>0.6041666666666666</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1761,12 +1812,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K30">
         <v>0.6</v>
@@ -1792,16 +1843,16 @@
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K31">
-        <v>0.5823529411764706</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L31">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M31">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1813,21 +1864,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K32">
-        <v>0.575</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1839,21 +1890,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.5730337078651685</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L33">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M33">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1865,21 +1916,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1891,21 +1942,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K35">
-        <v>0.5384615384615384</v>
+        <v>0.525</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1917,21 +1968,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>0.5254237288135594</v>
+        <v>0.5118644067796611</v>
       </c>
       <c r="L36">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M36">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1943,21 +1994,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K37">
-        <v>0.5238095238095238</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1969,21 +2020,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K38">
-        <v>0.5146443514644351</v>
+        <v>0.5062761506276151</v>
       </c>
       <c r="L38">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M38">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1995,21 +2046,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K39">
-        <v>0.4383561643835616</v>
+        <v>0.453125</v>
       </c>
       <c r="L39">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2021,21 +2072,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K40">
-        <v>0.4358974358974359</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2047,21 +2098,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K41">
-        <v>0.4285714285714285</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2073,15 +2124,15 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K42">
-        <v>0.40625</v>
+        <v>0.4</v>
       </c>
       <c r="L42">
         <v>26</v>
@@ -2099,15 +2150,15 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K43">
-        <v>0.1811023622047244</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="L43">
         <v>23</v>
@@ -2125,21 +2176,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K44">
-        <v>0.1483253588516746</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L44">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2151,21 +2202,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>356</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K45">
-        <v>0.1450381679389313</v>
+        <v>0.125</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2177,47 +2228,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>112</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K46">
-        <v>0.1348837209302326</v>
+        <v>0.1151079136690648</v>
       </c>
       <c r="L46">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>186</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K47">
-        <v>0.1225961538461538</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L47">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2229,21 +2280,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>365</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K48">
-        <v>0.08277404921700224</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L48">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2255,21 +2306,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>820</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K49">
-        <v>0.07103218645948946</v>
+        <v>0.08389261744966443</v>
       </c>
       <c r="L49">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="M49">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2281,21 +2332,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>837</v>
+        <v>819</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K50">
-        <v>0.06422018348623854</v>
+        <v>0.0764525993883792</v>
       </c>
       <c r="L50">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2307,73 +2358,73 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K51">
-        <v>0.05401234567901234</v>
+        <v>0.06104328523862375</v>
       </c>
       <c r="L51">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="M51">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N51">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>613</v>
+        <v>846</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K52">
-        <v>0.04320987654320987</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="L52">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M52">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>465</v>
+        <v>609</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K53">
-        <v>0.04152249134948097</v>
+        <v>0.05074971164936563</v>
       </c>
       <c r="L53">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M53">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2385,21 +2436,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K54">
-        <v>0.04024333177351427</v>
+        <v>0.04213483146067416</v>
       </c>
       <c r="L54">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M54">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="N54">
         <v>0.93</v>
@@ -2411,21 +2462,21 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>2051</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K55">
-        <v>0.03703703703703703</v>
+        <v>0.03909465020576132</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2437,85 +2488,59 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>546</v>
+        <v>467</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K56">
-        <v>0.02650290885585003</v>
+        <v>0.02612903225806452</v>
       </c>
       <c r="L56">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M56">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="N56">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="O56">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>3012</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K57">
-        <v>0.02380952380952381</v>
+        <v>0.01034158570980884</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M57">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N57">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="O57">
-        <v>0.07999999999999996</v>
+        <v>0.23</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K58">
-        <v>0.01064829314124648</v>
-      </c>
-      <c r="L58">
-        <v>34</v>
-      </c>
-      <c r="M58">
-        <v>42</v>
-      </c>
-      <c r="N58">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O58">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>3159</v>
+        <v>3158</v>
       </c>
     </row>
   </sheetData>
